--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gip-Dpp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gip-Dpp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Gip</t>
   </si>
   <si>
     <t>Dpp4</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.132565</v>
+        <v>0.2440396666666667</v>
       </c>
       <c r="H2">
-        <v>0.397695</v>
+        <v>0.732119</v>
       </c>
       <c r="I2">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="J2">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04653833333333334</v>
+        <v>5.156315</v>
       </c>
       <c r="N2">
-        <v>0.139615</v>
+        <v>15.468945</v>
       </c>
       <c r="O2">
-        <v>0.005940500114244479</v>
+        <v>0.6731804838152154</v>
       </c>
       <c r="P2">
-        <v>0.00594050011424448</v>
+        <v>0.6731804838152153</v>
       </c>
       <c r="Q2">
-        <v>0.006169354158333334</v>
+        <v>1.258345393828333</v>
       </c>
       <c r="R2">
-        <v>0.055524187425</v>
+        <v>11.325108544455</v>
       </c>
       <c r="S2">
-        <v>0.001067669569333667</v>
+        <v>0.1549747019844165</v>
       </c>
       <c r="T2">
-        <v>0.001067669569333667</v>
+        <v>0.1549747019844165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.132565</v>
+        <v>0.2440396666666667</v>
       </c>
       <c r="H3">
-        <v>0.397695</v>
+        <v>0.732119</v>
       </c>
       <c r="I3">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="J3">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.156314999999999</v>
+        <v>0.184428</v>
       </c>
       <c r="N3">
-        <v>15.468945</v>
+        <v>0.553284</v>
       </c>
       <c r="O3">
-        <v>0.6581905206442111</v>
+        <v>0.0240779181002465</v>
       </c>
       <c r="P3">
-        <v>0.6581905206442112</v>
+        <v>0.0240779181002465</v>
       </c>
       <c r="Q3">
-        <v>0.6835468979749999</v>
+        <v>0.045007747644</v>
       </c>
       <c r="R3">
-        <v>6.151922081774998</v>
+        <v>0.405069728796</v>
       </c>
       <c r="S3">
-        <v>0.1182947523274446</v>
+        <v>0.00554304272287127</v>
       </c>
       <c r="T3">
-        <v>0.1182947523274446</v>
+        <v>0.005543042722871267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,60 +661,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.132565</v>
+        <v>0.2440396666666667</v>
       </c>
       <c r="H4">
-        <v>0.397695</v>
+        <v>0.732119</v>
       </c>
       <c r="I4">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="J4">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.15792</v>
+        <v>2.318889333333333</v>
       </c>
       <c r="N4">
-        <v>0.4737600000000001</v>
+        <v>6.956668000000001</v>
       </c>
       <c r="O4">
-        <v>0.02015808712620037</v>
+        <v>0.3027415980845382</v>
       </c>
       <c r="P4">
-        <v>0.02015808712620037</v>
+        <v>0.3027415980845382</v>
       </c>
       <c r="Q4">
-        <v>0.0209346648</v>
+        <v>0.5659009799435555</v>
       </c>
       <c r="R4">
-        <v>0.1884119832</v>
+        <v>5.093108819492</v>
       </c>
       <c r="S4">
-        <v>0.003622956954249315</v>
+        <v>0.06969496304399084</v>
       </c>
       <c r="T4">
-        <v>0.003622956954249315</v>
+        <v>0.06969496304399082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.132565</v>
+        <v>0.605025</v>
       </c>
       <c r="H5">
-        <v>0.397695</v>
+        <v>1.815075</v>
       </c>
       <c r="I5">
-        <v>0.1797272197291178</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="J5">
-        <v>0.1797272197291178</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.473303333333333</v>
+        <v>5.156315</v>
       </c>
       <c r="N5">
-        <v>7.41991</v>
+        <v>15.468945</v>
       </c>
       <c r="O5">
-        <v>0.315710892115344</v>
+        <v>0.6731804838152154</v>
       </c>
       <c r="P5">
-        <v>0.315710892115344</v>
+        <v>0.6731804838152153</v>
       </c>
       <c r="Q5">
-        <v>0.3278734563833333</v>
+        <v>3.119699482875</v>
       </c>
       <c r="R5">
-        <v>2.95086110745</v>
+        <v>28.077295345875</v>
       </c>
       <c r="S5">
-        <v>0.05674184087809023</v>
+        <v>0.3842144613162134</v>
       </c>
       <c r="T5">
-        <v>0.05674184087809023</v>
+        <v>0.3842144613162133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,40 +791,40 @@
         <v>1.815075</v>
       </c>
       <c r="I6">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="J6">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04653833333333334</v>
+        <v>0.184428</v>
       </c>
       <c r="N6">
-        <v>0.139615</v>
+        <v>0.553284</v>
       </c>
       <c r="O6">
-        <v>0.005940500114244479</v>
+        <v>0.0240779181002465</v>
       </c>
       <c r="P6">
-        <v>0.00594050011424448</v>
+        <v>0.0240779181002465</v>
       </c>
       <c r="Q6">
-        <v>0.028156855125</v>
+        <v>0.1115835507</v>
       </c>
       <c r="R6">
-        <v>0.253411696125</v>
+        <v>1.0042519563</v>
       </c>
       <c r="S6">
-        <v>0.004872830544910813</v>
+        <v>0.01374235372967451</v>
       </c>
       <c r="T6">
-        <v>0.004872830544910813</v>
+        <v>0.0137423537296745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +853,10 @@
         <v>1.815075</v>
       </c>
       <c r="I7">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="J7">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,122 +865,122 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.156314999999999</v>
+        <v>2.318889333333333</v>
       </c>
       <c r="N7">
-        <v>15.468945</v>
+        <v>6.956668000000001</v>
       </c>
       <c r="O7">
-        <v>0.6581905206442111</v>
+        <v>0.3027415980845382</v>
       </c>
       <c r="P7">
-        <v>0.6581905206442112</v>
+        <v>0.3027415980845382</v>
       </c>
       <c r="Q7">
-        <v>3.119699482875</v>
+        <v>1.4029860189</v>
       </c>
       <c r="R7">
-        <v>28.077295345875</v>
+        <v>12.6268741701</v>
       </c>
       <c r="S7">
-        <v>0.5398957683167666</v>
+        <v>0.1727882831166404</v>
       </c>
       <c r="T7">
-        <v>0.5398957683167667</v>
+        <v>0.1727882831166404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.605025</v>
+        <v>0.210997</v>
       </c>
       <c r="H8">
-        <v>1.815075</v>
+        <v>0.632991</v>
       </c>
       <c r="I8">
-        <v>0.8202727802708822</v>
+        <v>0.1990421940861931</v>
       </c>
       <c r="J8">
-        <v>0.8202727802708822</v>
+        <v>0.1990421940861931</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.15792</v>
+        <v>5.156315</v>
       </c>
       <c r="N8">
-        <v>0.4737600000000001</v>
+        <v>15.468945</v>
       </c>
       <c r="O8">
-        <v>0.02015808712620037</v>
+        <v>0.6731804838152154</v>
       </c>
       <c r="P8">
-        <v>0.02015808712620037</v>
+        <v>0.6731804838152153</v>
       </c>
       <c r="Q8">
-        <v>0.09554554800000002</v>
+        <v>1.087966996055</v>
       </c>
       <c r="R8">
-        <v>0.8599099320000001</v>
+        <v>9.791702964495</v>
       </c>
       <c r="S8">
-        <v>0.01653513017195106</v>
+        <v>0.1339913205145855</v>
       </c>
       <c r="T8">
-        <v>0.01653513017195106</v>
+        <v>0.1339913205145855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.605025</v>
+        <v>0.210997</v>
       </c>
       <c r="H9">
-        <v>1.815075</v>
+        <v>0.632991</v>
       </c>
       <c r="I9">
-        <v>0.8202727802708822</v>
+        <v>0.1990421940861931</v>
       </c>
       <c r="J9">
-        <v>0.8202727802708822</v>
+        <v>0.1990421940861931</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,90 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.473303333333333</v>
+        <v>0.184428</v>
       </c>
       <c r="N9">
-        <v>7.41991</v>
+        <v>0.553284</v>
       </c>
       <c r="O9">
-        <v>0.315710892115344</v>
+        <v>0.0240779181002465</v>
       </c>
       <c r="P9">
-        <v>0.315710892115344</v>
+        <v>0.0240779181002465</v>
       </c>
       <c r="Q9">
-        <v>1.49641034925</v>
+        <v>0.038913754716</v>
       </c>
       <c r="R9">
-        <v>13.46769314325</v>
+        <v>0.350223792444</v>
       </c>
       <c r="S9">
-        <v>0.2589690512372538</v>
+        <v>0.004792521647700726</v>
       </c>
       <c r="T9">
-        <v>0.2589690512372538</v>
+        <v>0.004792521647700725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.210997</v>
+      </c>
+      <c r="H10">
+        <v>0.632991</v>
+      </c>
+      <c r="I10">
+        <v>0.1990421940861931</v>
+      </c>
+      <c r="J10">
+        <v>0.1990421940861931</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.318889333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.956668000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3027415980845382</v>
+      </c>
+      <c r="P10">
+        <v>0.3027415980845382</v>
+      </c>
+      <c r="Q10">
+        <v>0.4892786926653333</v>
+      </c>
+      <c r="R10">
+        <v>4.403508233988</v>
+      </c>
+      <c r="S10">
+        <v>0.06025835192390692</v>
+      </c>
+      <c r="T10">
+        <v>0.0602583519239069</v>
       </c>
     </row>
   </sheetData>
